--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/en/ExportQualityControls.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/en/ExportQualityControls.xlsx
@@ -5,18 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Produits" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Prélèvements" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Analyses" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Products" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Samples" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Analysis" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Analyses!$B$3:$N$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Prélèvements!$B$3:$I$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Produits!$B$3:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Prélèvements!$B$3:$J$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Analysis!$B$3:$N$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Products!$B$3:$I$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Samples!$B$3:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Samples!$B$3:$J$3</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t xml:space="preserve">TYPE</t>
   </si>
@@ -117,33 +117,30 @@
     <t xml:space="preserve">qa:slSampleState</t>
   </si>
   <si>
-    <t xml:space="preserve">Entité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point de contrôle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resp. prélèvement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resp. contrôle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resp. correction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Echantillon</t>
+    <t xml:space="preserve">Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correcter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample</t>
   </si>
   <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Statut</t>
-  </si>
-  <si>
     <t xml:space="preserve">qa:controlList</t>
   </si>
   <si>
@@ -186,31 +183,31 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Température</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Méthode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caractéristiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critères texte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contrôle libératoire</t>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caracteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Control</t>
   </si>
 </sst>
 </file>
@@ -251,7 +248,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,12 +258,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF004254"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006600"/>
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
@@ -305,7 +296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,12 +313,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -350,7 +337,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -422,15 +409,15 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.88"/>
@@ -526,14 +513,14 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="3:3 A1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.88"/>
@@ -610,7 +597,7 @@
         <v>36</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -634,22 +621,22 @@
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="1" sqref="3:3 B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.24609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="27.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="23.08"/>
   </cols>
   <sheetData>
@@ -658,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="0"/>
       <c r="D1" s="0"/>
@@ -676,84 +663,84 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
